--- a/Trimestre 3/9. Normalizacion.xlsx
+++ b/Trimestre 3/9. Normalizacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoFinal_ADSO/Trimestre 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0756DF2-4529-42DB-BA5C-96884427EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{A0756DF2-4529-42DB-BA5C-96884427EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A19C69A-105F-4C30-81DC-F36242AD9232}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
+    <workbookView xWindow="-28920" yWindow="840" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS DESNORMALIZADA" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="183">
   <si>
     <t>ID_pedido</t>
   </si>
@@ -449,29 +449,345 @@
     <t>Tercera Forma Normal (3FN)</t>
   </si>
   <si>
-    <t>🔹 Cada usuario tiene su propio ID, correo y teléfono sin depender de otros datos.</t>
-  </si>
-  <si>
-    <t>🔹 Cada pedido está asociado a un usuario y tiene un estado independiente.</t>
-  </si>
-  <si>
-    <t>🔹 Separamos los estados de los pedidos en otra tabla para evitar redundancia y facilitar actualizaciones.</t>
-  </si>
-  <si>
-    <t>🔹 Cada anillo (joya) pertenece a un solo pedido.</t>
-  </si>
-  <si>
-    <t>🔹 Separamos las fotos en su propia tabla para evitar datos repetidos en la tabla de joyas.</t>
-  </si>
-  <si>
-    <t>🔹 Igual que las fotos, los renders 3D se gestionan en su propia tabla.</t>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Tipo de Dato</t>
+  </si>
+  <si>
+    <t>Clave Primaria</t>
+  </si>
+  <si>
+    <t>Permite Nulos</t>
+  </si>
+  <si>
+    <t>tipdoc_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>tipdoc_nombre</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Autoincrement</t>
+  </si>
+  <si>
+    <t>Nombre del documento</t>
+  </si>
+  <si>
+    <t>1. tipo_de_documento</t>
+  </si>
+  <si>
+    <t>2. rol</t>
+  </si>
+  <si>
+    <t>rol_id</t>
+  </si>
+  <si>
+    <t>rol_nombre</t>
+  </si>
+  <si>
+    <t>Nombre del rol</t>
+  </si>
+  <si>
+    <t>3. estado_pedido</t>
+  </si>
+  <si>
+    <t>est_id</t>
+  </si>
+  <si>
+    <t>est_nombre</t>
+  </si>
+  <si>
+    <t>Estado del pedido</t>
+  </si>
+  <si>
+    <t>4. opcion_personalizacion</t>
+  </si>
+  <si>
+    <t>opc_id</t>
+  </si>
+  <si>
+    <t>opc_nombre</t>
+  </si>
+  <si>
+    <t>Tipo de opción disponible</t>
+  </si>
+  <si>
+    <t>5. usuarios</t>
+  </si>
+  <si>
+    <t>usu_id</t>
+  </si>
+  <si>
+    <t>usu_nombre</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>Nombre del usuario</t>
+  </si>
+  <si>
+    <t>usu_correo</t>
+  </si>
+  <si>
+    <t>Único</t>
+  </si>
+  <si>
+    <t>usu_telefono</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>usu_password</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>rol(rol_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tipo_de_documento(tipdoc_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>6. personalizacion</t>
+  </si>
+  <si>
+    <t>per_id</t>
+  </si>
+  <si>
+    <t>per_fecha</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Fecha de la personalización</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>usuarios(usu_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>7. detalle_personalizacion</t>
+  </si>
+  <si>
+    <t>det_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>personalizacion(per_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>val_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>valor_personalizacion(val_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>8. valor_personalizacion</t>
+  </si>
+  <si>
+    <t>val_nombre</t>
+  </si>
+  <si>
+    <t>Valor elegido por el cliente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>opcion_personalizacion(opc_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>9. pedido</t>
+  </si>
+  <si>
+    <t>ped_id</t>
+  </si>
+  <si>
+    <t>ped_codigo</t>
+  </si>
+  <si>
+    <t>Código identificador del pedido</t>
+  </si>
+  <si>
+    <t>ped_fecha_creacion</t>
+  </si>
+  <si>
+    <t>Fecha de creación</t>
+  </si>
+  <si>
+    <t>ped_comentarios</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>Observaciones adicionales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>estado_pedido(est_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>adm_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>usuarios(usu_id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (usuario asesor)</t>
+    </r>
+  </si>
+  <si>
+    <t>fot_id</t>
+  </si>
+  <si>
+    <t>fot_imagen_final</t>
+  </si>
+  <si>
+    <t>URL o nombre de archivo</t>
+  </si>
+  <si>
+    <t>fot_fecha_subida</t>
+  </si>
+  <si>
+    <t>Fecha de carga</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pedido(ped_id)</t>
+    </r>
+  </si>
+  <si>
+    <t>10. foto_producto_final</t>
+  </si>
+  <si>
+    <t>11. render_3d</t>
+  </si>
+  <si>
+    <t>ren_id</t>
+  </si>
+  <si>
+    <t>ren_imagen</t>
+  </si>
+  <si>
+    <t>ren_fecha_aprobacion</t>
+  </si>
+  <si>
+    <t>Fecha de aprobación del render</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +810,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,22 +876,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +1244,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
@@ -1114,28 +1446,28 @@
       </c>
     </row>
     <row r="7" spans="2:22" ht="30">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>42622</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>1003</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="6">
@@ -1246,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76160C86-08AE-4DDC-81E9-C87F34953287}">
-  <dimension ref="A2:V59"/>
+  <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:22" ht="45">
       <c r="B2" s="1" t="s">
@@ -1515,28 +1847,28 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="30">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>42622</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>1003</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>13</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="6">
@@ -1596,409 +1928,142 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
+    <row r="23" spans="2:6">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="10"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="10"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="10"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,7 +2078,7 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
@@ -2426,424 +2491,1031 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E90B9-F107-4757-97C5-3972816EC9E2}">
-  <dimension ref="B2:F57"/>
+  <dimension ref="B2:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3112233445</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3203344556</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3154455667</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+    <row r="4" spans="2:13">
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="30">
+      <c r="B6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="30">
+      <c r="B7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="30">
+      <c r="B8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30">
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45717</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45718</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45719</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
+      <c r="C13" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+      <c r="D13" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>79</v>
+      <c r="E13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="30">
+      <c r="B29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
+      <c r="B34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="2:6" ht="30">
+      <c r="B35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="30">
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
+      <c r="B36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="40.5">
+      <c r="B40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="30">
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="45">
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="45">
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="45">
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30">
-      <c r="B52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="60">
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="45">
-      <c r="B54" s="2">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="60">
-      <c r="B55" s="2">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
+      <c r="F44" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>110</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="30">
+      <c r="B46" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="27.75">
+      <c r="B47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="40.5">
+      <c r="B53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="40.5">
+      <c r="B54" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="30">
+      <c r="B60" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="40.5">
+      <c r="B61" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="45">
+      <c r="B67" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="30">
+      <c r="B68" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="30">
+      <c r="B69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="40.5">
+      <c r="B70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="40.5">
+      <c r="B71" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="45">
+      <c r="B72" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="30">
+      <c r="B78" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="30">
+      <c r="B79" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="27.75">
+      <c r="B80" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="30">
+      <c r="B86" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="45">
+      <c r="B87" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="27.75">
+      <c r="B88" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Trimestre 3/9. Normalizacion.xlsx
+++ b/Trimestre 3/9. Normalizacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoFinal_ADSO/Trimestre 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ce537462a3d960c/Documentos/ProyectoBrisasGems/Trimestre 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="121" documentId="8_{A0756DF2-4529-42DB-BA5C-96884427EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A19C69A-105F-4C30-81DC-F36242AD9232}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="840" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{6229E54D-E4F1-4FE6-A728-0168D3CB33D7}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS DESNORMALIZADA" sheetId="5" r:id="rId1"/>
@@ -852,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -891,16 +891,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1244,13 +1234,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" ht="45">
+    <row r="4" spans="2:22" ht="43.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="30">
+    <row r="5" spans="2:22">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1380,7 +1370,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="30">
+    <row r="6" spans="2:22" ht="28.8">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1445,7 +1435,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="30">
+    <row r="7" spans="2:22" ht="28.8">
       <c r="B7" s="12">
         <v>3</v>
       </c>
@@ -1580,13 +1570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76160C86-08AE-4DDC-81E9-C87F34953287}">
   <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:22" ht="45">
+    <row r="2" spans="2:22" ht="43.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="30">
+    <row r="3" spans="2:22" ht="28.8">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1716,7 +1706,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="30">
+    <row r="4" spans="2:22" ht="28.8">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -1781,7 +1771,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="30">
+    <row r="5" spans="2:22" ht="28.8">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -1846,7 +1836,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="30">
+    <row r="6" spans="2:22" ht="28.8">
       <c r="B6" s="12">
         <v>3</v>
       </c>
@@ -2075,10 +2065,10 @@
   <dimension ref="B2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
@@ -2109,7 +2099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30">
+    <row r="9" spans="2:6" ht="28.8">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -2123,7 +2113,7 @@
         <v>3112233445</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30">
+    <row r="10" spans="2:6" ht="28.8">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -2137,7 +2127,7 @@
         <v>3203344556</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30">
+    <row r="11" spans="2:6" ht="28.8">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30">
+    <row r="15" spans="2:6" ht="28.8">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="30">
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>3</v>
       </c>
@@ -2347,7 +2337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="30">
+    <row r="37" spans="2:6" ht="28.8">
       <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2361,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="45">
+    <row r="38" spans="2:6" ht="43.2">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -2375,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="45">
+    <row r="39" spans="2:6" ht="43.2">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -2389,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="45">
+    <row r="40" spans="2:6" ht="43.2">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -2408,7 +2398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30">
+    <row r="44" spans="2:6" ht="28.8">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="60">
+    <row r="45" spans="2:6" ht="43.2">
       <c r="B45" s="2">
         <v>1</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45">
+    <row r="46" spans="2:6" ht="43.2">
       <c r="B46" s="2">
         <v>2</v>
       </c>
@@ -2450,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="60">
+    <row r="47" spans="2:6" ht="43.2">
       <c r="B47" s="2">
         <v>3</v>
       </c>
@@ -2493,14 +2483,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E90B9-F107-4757-97C5-3972816EC9E2}">
   <dimension ref="B2:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="6" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -2513,7 +2503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="30">
+    <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
         <v>105</v>
       </c>
@@ -2530,7 +2520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="30">
+    <row r="7" spans="2:13">
       <c r="B7" s="10" t="s">
         <v>109</v>
       </c>
@@ -2547,7 +2537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="30">
+    <row r="8" spans="2:13" ht="28.8">
       <c r="B8" s="10" t="s">
         <v>113</v>
       </c>
@@ -2570,10 +2560,10 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="9" t="s">
@@ -2627,34 +2617,27 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="9" t="s">
@@ -2708,35 +2691,21 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="9" t="s">
@@ -2772,7 +2741,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="30">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="10" t="s">
         <v>129</v>
       </c>
@@ -2788,29 +2757,11 @@
       <c r="F29" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="9" t="s">
@@ -2844,7 +2795,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="2:6" ht="30">
+    <row r="35" spans="2:6">
       <c r="B35" s="10" t="s">
         <v>133</v>
       </c>
@@ -2925,7 +2876,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="40.5">
+    <row r="40" spans="2:6" ht="40.799999999999997">
       <c r="B40" s="10" t="s">
         <v>109</v>
       </c>
@@ -2941,29 +2892,17 @@
       <c r="F40" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9" t="s">
@@ -2999,7 +2938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="30">
+    <row r="46" spans="2:6" ht="28.8">
       <c r="B46" s="10" t="s">
         <v>146</v>
       </c>
@@ -3016,7 +2955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="27.75">
+    <row r="47" spans="2:6" ht="27.6">
       <c r="B47" s="10" t="s">
         <v>132</v>
       </c>
@@ -3072,7 +3011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="40.5">
+    <row r="53" spans="2:6" ht="40.799999999999997">
       <c r="B53" s="10" t="s">
         <v>145</v>
       </c>
@@ -3089,7 +3028,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="40.5">
+    <row r="54" spans="2:6" ht="40.799999999999997">
       <c r="B54" s="10" t="s">
         <v>153</v>
       </c>
@@ -3107,27 +3046,15 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="17"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="9" t="s">
@@ -3163,7 +3090,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="30">
+    <row r="60" spans="2:6" ht="28.8">
       <c r="B60" s="10" t="s">
         <v>156</v>
       </c>
@@ -3180,7 +3107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="40.5">
+    <row r="61" spans="2:6" ht="40.799999999999997">
       <c r="B61" s="10" t="s">
         <v>128</v>
       </c>
@@ -3236,7 +3163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="45">
+    <row r="67" spans="2:6" ht="28.8">
       <c r="B67" s="10" t="s">
         <v>161</v>
       </c>
@@ -3253,7 +3180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="30">
+    <row r="68" spans="2:6" ht="28.8">
       <c r="B68" s="10" t="s">
         <v>163</v>
       </c>
@@ -3270,7 +3197,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="30">
+    <row r="69" spans="2:6" ht="28.8">
       <c r="B69" s="10" t="s">
         <v>165</v>
       </c>
@@ -3287,7 +3214,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="40.5">
+    <row r="70" spans="2:6" ht="40.799999999999997">
       <c r="B70" s="10" t="s">
         <v>124</v>
       </c>
@@ -3304,7 +3231,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="40.5">
+    <row r="71" spans="2:6" ht="40.799999999999997">
       <c r="B71" s="10" t="s">
         <v>145</v>
       </c>
@@ -3321,7 +3248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="45">
+    <row r="72" spans="2:6" ht="43.2">
       <c r="B72" s="10" t="s">
         <v>169</v>
       </c>
@@ -3377,7 +3304,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="30">
+    <row r="78" spans="2:6" ht="28.8">
       <c r="B78" s="10" t="s">
         <v>172</v>
       </c>
@@ -3394,7 +3321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="30">
+    <row r="79" spans="2:6" ht="28.8">
       <c r="B79" s="10" t="s">
         <v>174</v>
       </c>
@@ -3411,7 +3338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="27.75">
+    <row r="80" spans="2:6">
       <c r="B80" s="10" t="s">
         <v>160</v>
       </c>
@@ -3467,7 +3394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="30">
+    <row r="86" spans="2:6" ht="28.8">
       <c r="B86" s="10" t="s">
         <v>180</v>
       </c>
@@ -3484,7 +3411,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="45">
+    <row r="87" spans="2:6" ht="43.2">
       <c r="B87" s="10" t="s">
         <v>181</v>
       </c>
@@ -3501,7 +3428,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="27.75">
+    <row r="88" spans="2:6">
       <c r="B88" s="10" t="s">
         <v>160</v>
       </c>
